--- a/data/transformed_data_2007.xlsx
+++ b/data/transformed_data_2007.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>338915.0667248933</v>
+        <v>344798.6143248933</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>49419.44</v>
+        <v>42500.7184</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7394.099999999999</v>
+        <v>6358.925999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5115,7 +5115,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13463.0225598862</v>
+        <v>13245.8349598862</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5451,7 +5451,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>108.78</v>
+        <v>93.5508</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5619,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1660.12</v>
+        <v>1427.7032</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7830,7 +7830,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>27892.9647544808</v>
+        <v>28484.1595544808</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8166,7 +8166,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>13296.64</v>
+        <v>11435.1104</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8334,7 +8334,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9073.82</v>
+        <v>7803.4852</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19704.5445598862</v>
+        <v>19693.8429598862</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2204.02</v>
+        <v>1895.4572</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11077,7 +11077,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2280.46</v>
+        <v>1961.1956</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13302,7 +13302,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14704.70369331437</v>
+        <v>14840.80609331437</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13638,7 +13638,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9024.82</v>
+        <v>7761.3452</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13806,7 +13806,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8052.66</v>
+        <v>6925.2876</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16045,7 +16045,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7075.0218</v>
+        <v>7001.482599999999</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16381,7 +16381,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>283.22</v>
+        <v>243.5692</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16549,7 +16549,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>808.5</v>
+        <v>695.3099999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18788,7 +18788,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17377.29330981508</v>
+        <v>17047.05290981507</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19124,7 +19124,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>11794.3</v>
+        <v>10143.098</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19292,7 +19292,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>14153.16</v>
+        <v>12171.7176</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21531,7 +21531,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>21544.23995504979</v>
+        <v>21527.63875504978</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21867,7 +21867,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7220.639999999999</v>
+        <v>6209.7504</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22035,7 +22035,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7339.22</v>
+        <v>6311.7292</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17365.80397382646</v>
+        <v>16720.41517382646</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24610,7 +24610,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7580.3</v>
+        <v>6519.057999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24778,7 +24778,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>12190.22</v>
+        <v>10483.5892</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27017,7 +27017,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7147.687991465149</v>
+        <v>7044.376391465149</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27353,7 +27353,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1425.9</v>
+        <v>1226.274</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27521,7 +27521,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2163.84</v>
+        <v>1860.9024</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29746,7 +29746,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8933.26025889047</v>
+        <v>9131.102658890472</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30082,7 +30082,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6909.98</v>
+        <v>5942.582799999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30250,7 +30250,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5496.82</v>
+        <v>4727.2652</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32489,7 +32489,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>46999.81888477952</v>
+        <v>46983.62928477952</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32825,7 +32825,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2538.2</v>
+        <v>2182.852</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32993,7 +32993,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2653.84</v>
+        <v>2282.3024</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35218,7 +35218,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6908.386907539118</v>
+        <v>6859.132107539117</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35554,7 +35554,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>176.4</v>
+        <v>151.704</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35722,7 +35722,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>528.22</v>
+        <v>454.2692</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37947,7 +37947,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9073.268186943385</v>
+        <v>8724.780186943384</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38283,7 +38283,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>129.36</v>
+        <v>111.2496</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38451,7 +38451,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2618.56</v>
+        <v>2251.9616</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40676,7 +40676,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3793.500429018492</v>
+        <v>3795.009629018492</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -41012,7 +41012,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3763.2</v>
+        <v>3236.352</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41180,7 +41180,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3752.42</v>
+        <v>3227.0812</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43419,7 +43419,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4594.31477553343</v>
+        <v>4502.11637553343</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43755,7 +43755,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6617.94</v>
+        <v>5691.4284</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43923,7 +43923,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7276.5</v>
+        <v>6257.79</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46162,7 +46162,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>15696.85176216216</v>
+        <v>14983.68616216216</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46498,7 +46498,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6947.22</v>
+        <v>5974.6092</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46666,7 +46666,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>12041.26</v>
+        <v>10355.4836</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48905,7 +48905,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4530.493969274537</v>
+        <v>4469.165569274538</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49241,7 +49241,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6142.64</v>
+        <v>5282.670399999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49409,7 +49409,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6580.7</v>
+        <v>5659.401999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51634,7 +51634,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9838.392496728307</v>
+        <v>9370.266096728306</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51970,7 +51970,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>669.34</v>
+        <v>575.6324</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52138,7 +52138,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4013.1</v>
+        <v>3451.266</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54349,7 +54349,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4599.365720625888</v>
+        <v>4516.085320625888</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54685,7 +54685,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1312.22</v>
+        <v>1128.5092</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54853,7 +54853,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1907.08</v>
+        <v>1640.0888</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57078,7 +57078,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6963.713943669984</v>
+        <v>6939.566743669984</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57414,7 +57414,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1476.86</v>
+        <v>1270.0996</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57582,7 +57582,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1649.34</v>
+        <v>1418.4324</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59821,7 +59821,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9281.152563869133</v>
+        <v>9449.222563869133</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60157,7 +60157,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3071.32</v>
+        <v>2641.3352</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60325,7 +60325,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1870.82</v>
+        <v>1608.9052</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62550,7 +62550,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>49982.72679772403</v>
+        <v>53095.38319772403</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62886,7 +62886,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>28546.42</v>
+        <v>24549.9212</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63054,7 +63054,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6313.16</v>
+        <v>5429.317599999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65293,7 +65293,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4941.593541963015</v>
+        <v>4898.238341963015</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65629,7 +65629,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3206.56</v>
+        <v>2757.6416</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65797,7 +65797,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3516.24</v>
+        <v>3023.9664</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68036,7 +68036,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>107071.791999431</v>
+        <v>104493.392399431</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68372,7 +68372,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>20445.74</v>
+        <v>17583.3364</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68540,7 +68540,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>38862.88</v>
+        <v>33422.0768</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70779,7 +70779,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>54253.65774395449</v>
+        <v>53262.66214395448</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71115,7 +71115,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2497.04</v>
+        <v>2147.4544</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71283,7 +71283,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9575.58</v>
+        <v>8234.998799999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73508,7 +73508,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>35598.78728079658</v>
+        <v>37396.79328079658</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73844,7 +73844,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>17568.46</v>
+        <v>15108.8756</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -74012,7 +74012,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4725.559999999999</v>
+        <v>4063.9816</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76251,7 +76251,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>25648.90086714083</v>
+        <v>27089.22646714083</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76587,7 +76587,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>29493.1</v>
+        <v>25364.066</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76755,7 +76755,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>19205.06</v>
+        <v>16516.3516</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -78994,7 +78994,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>21137.54546299984</v>
+        <v>21445.55946299984</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79330,7 +79330,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5121.48</v>
+        <v>4404.4728</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79498,7 +79498,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2921.38</v>
+        <v>2512.3868</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81723,7 +81723,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>18284.01192091038</v>
+        <v>18447.00552091038</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82059,7 +82059,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3380.02</v>
+        <v>2906.8172</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82227,7 +82227,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2215.78</v>
+        <v>1905.5708</v>
       </c>
     </row>
     <row r="168" spans="1:4">
